--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -18,6 +18,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.货币</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
@@ -133,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +183,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -473,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,5 +702,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G1" sqref="G1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,7 +697,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>daoju_icon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,20 @@
   </si>
   <si>
     <t>daoju_5</t>
+  </si>
+  <si>
+    <t>基础货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美金（真实货币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoju_icon_6</t>
+  </si>
+  <si>
+    <t>daoju_6</t>
   </si>
 </sst>
 </file>
@@ -525,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>40101</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -622,16 +632,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>40102</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -642,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>40103</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -662,16 +672,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>40104</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -682,18 +692,38 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>40105</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>

--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -538,13 +538,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">

--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>daoju_icon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>daoju_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,9 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>daoju_icon_3</t>
-  </si>
-  <si>
     <t>daoju_3</t>
   </si>
   <si>
@@ -145,9 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>daoju_icon_4</t>
-  </si>
-  <si>
     <t>daoju_4</t>
   </si>
   <si>
@@ -169,10 +159,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>daoju_icon_6</t>
-  </si>
-  <si>
     <t>daoju_6</t>
+  </si>
+  <si>
+    <t>hb_jk</t>
+  </si>
+  <si>
+    <t>hb_zs</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>bz_megatoken</t>
   </si>
 </sst>
 </file>
@@ -538,7 +537,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>40101</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -633,16 +632,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>40102</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -653,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>40103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -673,16 +672,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>40104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -693,16 +692,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>40105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -713,16 +712,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>40106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>

--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.货币</t>
+1.货币
+2.消耗道具
+</t>
         </r>
       </text>
     </comment>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +174,174 @@
   </si>
   <si>
     <t>bz_megatoken</t>
+  </si>
+  <si>
+    <t>时间奖励1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加1倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加2倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加5倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重制游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产速度2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产速度5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告效果翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆3</t>
+  </si>
+  <si>
+    <t>金矿堆4</t>
+  </si>
+  <si>
+    <t>金矿堆5</t>
+  </si>
+  <si>
+    <t>金矿堆6</t>
+  </si>
+  <si>
+    <t>daoju_7</t>
+  </si>
+  <si>
+    <t>daoju_8</t>
+  </si>
+  <si>
+    <t>daoju_9</t>
+  </si>
+  <si>
+    <t>daoju_10</t>
+  </si>
+  <si>
+    <t>daoju_11</t>
+  </si>
+  <si>
+    <t>daoju_12</t>
+  </si>
+  <si>
+    <t>daoju_13</t>
+  </si>
+  <si>
+    <t>daoju_14</t>
+  </si>
+  <si>
+    <t>daoju_15</t>
+  </si>
+  <si>
+    <t>daoju_16</t>
+  </si>
+  <si>
+    <t>daoju_17</t>
+  </si>
+  <si>
+    <t>daoju_18</t>
+  </si>
+  <si>
+    <t>daoju_19</t>
+  </si>
+  <si>
+    <t>daoju_20</t>
+  </si>
+  <si>
+    <t>daoju_21</t>
+  </si>
+  <si>
+    <t>daoju_22</t>
+  </si>
+  <si>
+    <t>daoju_23</t>
+  </si>
+  <si>
+    <t>daoju_24</t>
+  </si>
+  <si>
+    <t>小猪矿机50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪矿机100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoju_25</t>
+  </si>
+  <si>
+    <t>时间奖励（商城广告）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoju_26</t>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪（限时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -209,7 +379,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +392,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -246,14 +428,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,20 +732,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,16 +756,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,16 +782,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -598,16 +808,22 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -617,17 +833,21 @@
       <c r="C4" s="2">
         <v>40101</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>41101</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -637,17 +857,21 @@
       <c r="C5" s="2">
         <v>40102</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>41102</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -657,17 +881,21 @@
       <c r="C6" s="2">
         <v>40103</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
+      <c r="D6" s="2">
+        <v>41103</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -677,17 +905,21 @@
       <c r="C7" s="2">
         <v>40104</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>41104</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -697,17 +929,21 @@
       <c r="C8" s="2">
         <v>40105</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>41105</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -717,15 +953,589 @@
       <c r="C9" s="2">
         <v>40106</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>41106</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40201</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41201</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>50101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40202</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41202</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40203</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41203</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40204</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41204</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40205</v>
+      </c>
+      <c r="D14" s="2">
+        <v>41205</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>50201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>40206</v>
+      </c>
+      <c r="D15" s="2">
+        <v>41206</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>50202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40207</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41207</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>50203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2">
+        <v>40208</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41208</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>50301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40209</v>
+      </c>
+      <c r="D18" s="2">
+        <v>41209</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40210</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41210</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>50402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40211</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41211</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>50501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40212</v>
+      </c>
+      <c r="D21" s="2">
+        <v>41212</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>50601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40213</v>
+      </c>
+      <c r="D22" s="2">
+        <v>41213</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>50602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40214</v>
+      </c>
+      <c r="D23" s="2">
+        <v>41214</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>50603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>40215</v>
+      </c>
+      <c r="D24" s="2">
+        <v>41215</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>50604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>40216</v>
+      </c>
+      <c r="D25" s="2">
+        <v>41216</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>50605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2">
+        <v>40217</v>
+      </c>
+      <c r="D26" s="2">
+        <v>41217</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>50606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2">
+        <v>40218</v>
+      </c>
+      <c r="D27" s="2">
+        <v>41218</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>40102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2">
+        <v>40219</v>
+      </c>
+      <c r="D28" s="2">
+        <v>41219</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>40103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <v>40220</v>
+      </c>
+      <c r="D29" s="2">
+        <v>41220</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>40104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2">
+        <v>40221</v>
+      </c>
+      <c r="D30" s="2">
+        <v>41221</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>40101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2">
+        <v>40301</v>
+      </c>
+      <c r="D31" s="2">
+        <v>41301</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/prop.xlsx
+++ b/excel/prop.xlsx
@@ -49,6 +49,41 @@
 1.货币
 2.消耗道具
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+效果表类型：
+41.小猪产矿机（参数：数量/1000，CD）
+42.小猪矿机永久（参数：数量/1000）
+43.永久矿机（参数：数量/1000）
+51.销售游戏资产不重置矿产（参数：无）
+52.矿产CD减少（参数：倍率）
+53.广告效果翻倍（参数：倍率/1000）（效果id：31、32增加持续时间，33、34、35增加参数）
+54.金矿包（参数：金矿数量）
+11.矿产效果翻倍（参加：倍数/1000）
+33.时间奖励（参数：时间（s））</t>
         </r>
       </text>
     </comment>
@@ -735,7 +770,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
